--- a/x-ray/X-ray/테스트 결과.xlsx
+++ b/x-ray/X-ray/테스트 결과.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\myong\Desktop\x-ray\X-ray\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\myong\Desktop\Github\minki_project\x-ray\X-ray\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E79BF7E-799B-450C-ABF0-7AA0F3402C90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73DB477D-4FC8-4C62-A664-8BCE22E11B6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3183,15 +3183,6 @@
                 <c:pt idx="32">
                   <c:v>45606</c:v>
                 </c:pt>
-                <c:pt idx="33">
-                  <c:v>45607</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>45607</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>45607</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -3569,15 +3560,6 @@
                       <c:pt idx="32">
                         <c:v>45606</c:v>
                       </c:pt>
-                      <c:pt idx="33">
-                        <c:v>45607</c:v>
-                      </c:pt>
-                      <c:pt idx="34">
-                        <c:v>45607</c:v>
-                      </c:pt>
-                      <c:pt idx="35">
-                        <c:v>45607</c:v>
-                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:cat>
@@ -3931,15 +3913,6 @@
                       </c:pt>
                       <c:pt idx="32">
                         <c:v>45606</c:v>
-                      </c:pt>
-                      <c:pt idx="33">
-                        <c:v>45607</c:v>
-                      </c:pt>
-                      <c:pt idx="34">
-                        <c:v>45607</c:v>
-                      </c:pt>
-                      <c:pt idx="35">
-                        <c:v>45607</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -4731,7 +4704,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:I116"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" zoomScale="98" zoomScaleNormal="98" zoomScaleSheetLayoutView="88" workbookViewId="0">
+    <sheetView topLeftCell="A8" zoomScale="98" zoomScaleNormal="98" zoomScaleSheetLayoutView="88" workbookViewId="0">
       <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
@@ -5634,10 +5607,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3ECC277F-98B2-4793-A7DC-820E656E7C17}">
-  <dimension ref="A1:D100"/>
+  <dimension ref="A1:D74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
-      <selection activeCell="D72" sqref="D72"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="U59" sqref="U59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6634,245 +6607,13 @@
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A72">
-        <v>70</v>
-      </c>
-      <c r="B72">
-        <v>100</v>
-      </c>
-      <c r="C72" s="4">
-        <v>45607</v>
-      </c>
+      <c r="C72" s="4"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A73">
-        <v>71</v>
-      </c>
-      <c r="B73">
-        <v>100</v>
-      </c>
-      <c r="C73" s="4">
-        <v>45607</v>
-      </c>
+      <c r="C73" s="4"/>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A74">
-        <v>72</v>
-      </c>
-      <c r="B74">
-        <v>100</v>
-      </c>
-      <c r="C74" s="4">
-        <v>45607</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A75">
-        <v>73</v>
-      </c>
-      <c r="B75">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A76">
-        <v>74</v>
-      </c>
-      <c r="B76">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A77">
-        <v>75</v>
-      </c>
-      <c r="B77">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A78">
-        <v>76</v>
-      </c>
-      <c r="B78">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A79">
-        <v>77</v>
-      </c>
-      <c r="B79">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A80">
-        <v>78</v>
-      </c>
-      <c r="B80">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A81">
-        <v>79</v>
-      </c>
-      <c r="B81">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A82">
-        <v>80</v>
-      </c>
-      <c r="B82">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A83">
-        <v>81</v>
-      </c>
-      <c r="B83">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A84">
-        <v>82</v>
-      </c>
-      <c r="B84">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A85">
-        <v>83</v>
-      </c>
-      <c r="B85">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A86">
-        <v>84</v>
-      </c>
-      <c r="B86">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A87">
-        <v>85</v>
-      </c>
-      <c r="B87">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A88">
-        <v>86</v>
-      </c>
-      <c r="B88">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A89">
-        <v>87</v>
-      </c>
-      <c r="B89">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A90">
-        <v>88</v>
-      </c>
-      <c r="B90">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A91">
-        <v>89</v>
-      </c>
-      <c r="B91">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A92">
-        <v>90</v>
-      </c>
-      <c r="B92">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A93">
-        <v>91</v>
-      </c>
-      <c r="B93">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A94">
-        <v>92</v>
-      </c>
-      <c r="B94">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A95">
-        <v>93</v>
-      </c>
-      <c r="B95">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A96">
-        <v>94</v>
-      </c>
-      <c r="B96">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A97">
-        <v>95</v>
-      </c>
-      <c r="B97">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A98">
-        <v>96</v>
-      </c>
-      <c r="B98">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A99">
-        <v>97</v>
-      </c>
-      <c r="B99">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A100">
-        <v>98</v>
-      </c>
-      <c r="B100">
-        <v>100</v>
-      </c>
+      <c r="C74" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/x-ray/X-ray/테스트 결과.xlsx
+++ b/x-ray/X-ray/테스트 결과.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\myong\Desktop\Github\minki_project\x-ray\X-ray\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73DB477D-4FC8-4C62-A664-8BCE22E11B6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{749D0F80-A64B-4168-8D3A-8795446A6EF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="14">
   <si>
     <t>X-ray를 통한 폐렴 조사 결과</t>
   </si>
@@ -86,6 +86,10 @@
   </si>
   <si>
     <t>테스트 정확도</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>평균</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -5607,10 +5611,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3ECC277F-98B2-4793-A7DC-820E656E7C17}">
-  <dimension ref="A1:D74"/>
+  <dimension ref="A1:F74"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="U59" sqref="U59"/>
+      <selection activeCell="F57" sqref="F57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6284,7 +6288,7 @@
         <v>81.3</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>47</v>
       </c>
@@ -6298,7 +6302,7 @@
         <v>83.8</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>48</v>
       </c>
@@ -6312,7 +6316,7 @@
         <v>89.9</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>49</v>
       </c>
@@ -6326,7 +6330,7 @@
         <v>89.9</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>50</v>
       </c>
@@ -6340,7 +6344,7 @@
         <v>85.6</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>51</v>
       </c>
@@ -6354,7 +6358,7 @@
         <v>84.6</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>52</v>
       </c>
@@ -6368,7 +6372,7 @@
         <v>85.9</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>53</v>
       </c>
@@ -6381,8 +6385,11 @@
       <c r="D55">
         <v>80.900000000000006</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F55" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>54</v>
       </c>
@@ -6395,8 +6402,12 @@
       <c r="D56">
         <v>80.3</v>
       </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F56">
+        <f>AVERAGE(D3:D71)</f>
+        <v>87.308695652173895</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>55</v>
       </c>
@@ -6410,7 +6421,7 @@
         <v>86.9</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>56</v>
       </c>
@@ -6424,7 +6435,7 @@
         <v>83.9</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>57</v>
       </c>
@@ -6438,7 +6449,7 @@
         <v>79.900000000000006</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>58</v>
       </c>
@@ -6452,7 +6463,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>59</v>
       </c>
@@ -6466,7 +6477,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>60</v>
       </c>
@@ -6480,7 +6491,7 @@
         <v>82.7</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>61</v>
       </c>
@@ -6494,7 +6505,7 @@
         <v>86.8</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>62</v>
       </c>

--- a/x-ray/X-ray/테스트 결과.xlsx
+++ b/x-ray/X-ray/테스트 결과.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\myong\Desktop\Github\minki_project\x-ray\X-ray\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\myong\Desktop\x-ray\X-ray\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{749D0F80-A64B-4168-8D3A-8795446A6EF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E79BF7E-799B-450C-ABF0-7AA0F3402C90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="13">
   <si>
     <t>X-ray를 통한 폐렴 조사 결과</t>
   </si>
@@ -86,10 +86,6 @@
   </si>
   <si>
     <t>테스트 정확도</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>평균</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -3187,6 +3183,15 @@
                 <c:pt idx="32">
                   <c:v>45606</c:v>
                 </c:pt>
+                <c:pt idx="33">
+                  <c:v>45607</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>45607</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>45607</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -3564,6 +3569,15 @@
                       <c:pt idx="32">
                         <c:v>45606</c:v>
                       </c:pt>
+                      <c:pt idx="33">
+                        <c:v>45607</c:v>
+                      </c:pt>
+                      <c:pt idx="34">
+                        <c:v>45607</c:v>
+                      </c:pt>
+                      <c:pt idx="35">
+                        <c:v>45607</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:cat>
@@ -3917,6 +3931,15 @@
                       </c:pt>
                       <c:pt idx="32">
                         <c:v>45606</c:v>
+                      </c:pt>
+                      <c:pt idx="33">
+                        <c:v>45607</c:v>
+                      </c:pt>
+                      <c:pt idx="34">
+                        <c:v>45607</c:v>
+                      </c:pt>
+                      <c:pt idx="35">
+                        <c:v>45607</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -4708,7 +4731,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:I116"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScale="98" zoomScaleNormal="98" zoomScaleSheetLayoutView="88" workbookViewId="0">
+    <sheetView topLeftCell="A20" zoomScale="98" zoomScaleNormal="98" zoomScaleSheetLayoutView="88" workbookViewId="0">
       <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
@@ -5611,10 +5634,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3ECC277F-98B2-4793-A7DC-820E656E7C17}">
-  <dimension ref="A1:F74"/>
+  <dimension ref="A1:D100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="F57" sqref="F57"/>
+    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
+      <selection activeCell="D72" sqref="D72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6288,7 +6311,7 @@
         <v>81.3</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>47</v>
       </c>
@@ -6302,7 +6325,7 @@
         <v>83.8</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>48</v>
       </c>
@@ -6316,7 +6339,7 @@
         <v>89.9</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>49</v>
       </c>
@@ -6330,7 +6353,7 @@
         <v>89.9</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>50</v>
       </c>
@@ -6344,7 +6367,7 @@
         <v>85.6</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>51</v>
       </c>
@@ -6358,7 +6381,7 @@
         <v>84.6</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>52</v>
       </c>
@@ -6372,7 +6395,7 @@
         <v>85.9</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>53</v>
       </c>
@@ -6385,11 +6408,8 @@
       <c r="D55">
         <v>80.900000000000006</v>
       </c>
-      <c r="F55" s="10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>54</v>
       </c>
@@ -6402,12 +6422,8 @@
       <c r="D56">
         <v>80.3</v>
       </c>
-      <c r="F56">
-        <f>AVERAGE(D3:D71)</f>
-        <v>87.308695652173895</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>55</v>
       </c>
@@ -6421,7 +6437,7 @@
         <v>86.9</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>56</v>
       </c>
@@ -6435,7 +6451,7 @@
         <v>83.9</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>57</v>
       </c>
@@ -6449,7 +6465,7 @@
         <v>79.900000000000006</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>58</v>
       </c>
@@ -6463,7 +6479,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>59</v>
       </c>
@@ -6477,7 +6493,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>60</v>
       </c>
@@ -6491,7 +6507,7 @@
         <v>82.7</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>61</v>
       </c>
@@ -6505,7 +6521,7 @@
         <v>86.8</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>62</v>
       </c>
@@ -6618,13 +6634,245 @@
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C72" s="4"/>
+      <c r="A72">
+        <v>70</v>
+      </c>
+      <c r="B72">
+        <v>100</v>
+      </c>
+      <c r="C72" s="4">
+        <v>45607</v>
+      </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C73" s="4"/>
+      <c r="A73">
+        <v>71</v>
+      </c>
+      <c r="B73">
+        <v>100</v>
+      </c>
+      <c r="C73" s="4">
+        <v>45607</v>
+      </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C74" s="4"/>
+      <c r="A74">
+        <v>72</v>
+      </c>
+      <c r="B74">
+        <v>100</v>
+      </c>
+      <c r="C74" s="4">
+        <v>45607</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A75">
+        <v>73</v>
+      </c>
+      <c r="B75">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A76">
+        <v>74</v>
+      </c>
+      <c r="B76">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A77">
+        <v>75</v>
+      </c>
+      <c r="B77">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A78">
+        <v>76</v>
+      </c>
+      <c r="B78">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A79">
+        <v>77</v>
+      </c>
+      <c r="B79">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A80">
+        <v>78</v>
+      </c>
+      <c r="B80">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A81">
+        <v>79</v>
+      </c>
+      <c r="B81">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A82">
+        <v>80</v>
+      </c>
+      <c r="B82">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A83">
+        <v>81</v>
+      </c>
+      <c r="B83">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A84">
+        <v>82</v>
+      </c>
+      <c r="B84">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A85">
+        <v>83</v>
+      </c>
+      <c r="B85">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A86">
+        <v>84</v>
+      </c>
+      <c r="B86">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A87">
+        <v>85</v>
+      </c>
+      <c r="B87">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A88">
+        <v>86</v>
+      </c>
+      <c r="B88">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A89">
+        <v>87</v>
+      </c>
+      <c r="B89">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A90">
+        <v>88</v>
+      </c>
+      <c r="B90">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A91">
+        <v>89</v>
+      </c>
+      <c r="B91">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A92">
+        <v>90</v>
+      </c>
+      <c r="B92">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A93">
+        <v>91</v>
+      </c>
+      <c r="B93">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A94">
+        <v>92</v>
+      </c>
+      <c r="B94">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A95">
+        <v>93</v>
+      </c>
+      <c r="B95">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A96">
+        <v>94</v>
+      </c>
+      <c r="B96">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A97">
+        <v>95</v>
+      </c>
+      <c r="B97">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A98">
+        <v>96</v>
+      </c>
+      <c r="B98">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A99">
+        <v>97</v>
+      </c>
+      <c r="B99">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A100">
+        <v>98</v>
+      </c>
+      <c r="B100">
+        <v>100</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
